--- a/biology/Histoire de la zoologie et de la botanique/Noël-Antoine_Pluche/Noël-Antoine_Pluche.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Noël-Antoine_Pluche/Noël-Antoine_Pluche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No%C3%ABl-Antoine_Pluche</t>
+          <t>Noël-Antoine_Pluche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noël-Antoine Pluche, plus connu sous l'appellation l'abbé Pluche, né le 13 novembre 1688 à Reims, paroisse Saint-Hilaire et mort le 19 novembre 1761 à La Varenne-Saint-Maur, près de Paris, est un prêtre français, célèbre pour son Spectacle de la nature, référence d'histoire naturelle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No%C3%ABl-Antoine_Pluche</t>
+          <t>Noël-Antoine_Pluche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il serait né à Reims dans la rue qui porte aujourd’hui son nom, était fils d’un boulanger. Sa maison natale, dont il reste quelques vestiges, occupait l’angle des rues Pluche et du Marc, emplacement actuel du square Charles Sarazin (1879-1953, archéologue et historien rémois).
 Il devint en 1710 professeur de rhétorique à Reims. L'évêque de Laon le nomma directeur du collège de la ville, poste qu'il accepta pour échapper aux poursuites judiciaires du fait de son opposition à la bulle Unigenitus de 1713.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No%C3%ABl-Antoine_Pluche</t>
+          <t>Noël-Antoine_Pluche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son Spectacle de la nature, ou Entretiens sur les particularités de l'histoire naturelle qui ont paru les plus propres à rendre les jeunes gens curieux et à leur former l'esprit paraît pour la première fois en 1732, est rapidement traduit dans toutes les langues européennes et connaît un très grand nombre d'adaptations plus ou moins abrégées. Le retentissement de ce livre est considérable et on peut, à juste titre, parler de best-seller. Il suscitera un grand nombre de vocations de naturaliste.
 Il ne s'agit pas à proprement parler d'un livre scientifique mais d'une vulgarisation traitant sur un ton léger de sujets sérieux. Il participe à la diffusion du goût pour l'étude scientifique au dix-huitième siècle.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No%C3%ABl-Antoine_Pluche</t>
+          <t>Noël-Antoine_Pluche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Noël-Antoine Pluche, Le spectacle de la nature, ou Entretiens sur les particularités de l'histoire naturelle qui ont paru les plus propres à piquer la curiosité de la jeunesse et à lui former l'esprit (7 volumes), Bar-le-Duc, L. Guérin, 1875 (1re éd. 1732-1742) (lire en ligne)
 Histoire du ciel considéré selon les idées des poètes, des philosophes et de Moïse, où l'on fait voir : 1° l'origine du ciel poétique, 2° la méprise des philosophes sur la fabrique du ciel et de la terre, 3° la conformité de l'expérience avec la seule physique de Moïse, Paris : Vve Estienne, 1739.
